--- a/output/tab_names_catch.xlsx
+++ b/output/tab_names_catch.xlsx
@@ -1,674 +1,667 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03369754-16A6-4849-B02C-9F97390432C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="214">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Catch_amount</t>
-  </si>
-  <si>
-    <t>Species_taxon</t>
-  </si>
-  <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>North.Ucides cordatus</t>
-  </si>
-  <si>
-    <t>Ucides cordatus</t>
-  </si>
-  <si>
-    <t>Uci cor</t>
-  </si>
-  <si>
-    <t>Malacostraca</t>
-  </si>
-  <si>
-    <t>Ocypodidae</t>
-  </si>
-  <si>
-    <t>North.Mugil spp</t>
-  </si>
-  <si>
-    <t>Mugil spp</t>
-  </si>
-  <si>
-    <t>Mug spp</t>
-  </si>
-  <si>
-    <t>North.Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t>Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t>Sco bra</t>
-  </si>
-  <si>
-    <t>Actinopteri</t>
-  </si>
-  <si>
-    <t>Scombridae</t>
-  </si>
-  <si>
-    <t>North.Lutjanus purpureus</t>
-  </si>
-  <si>
-    <t>Lutjanus purpureus</t>
-  </si>
-  <si>
-    <t>Lut pur</t>
-  </si>
-  <si>
-    <t>Lutjanidae</t>
-  </si>
-  <si>
-    <t>North.Ocyurus chrysurus</t>
-  </si>
-  <si>
-    <t>Ocyurus chrysurus</t>
-  </si>
-  <si>
-    <t>Ocy chr</t>
-  </si>
-  <si>
-    <t>North.Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t>Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t>Opi ogl</t>
-  </si>
-  <si>
-    <t>Clupeidae</t>
-  </si>
-  <si>
-    <t>North.Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t>Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t>Mic fur</t>
-  </si>
-  <si>
-    <t>Sciaenidae</t>
-  </si>
-  <si>
-    <t>North.Scomberomorus cavalla</t>
-  </si>
-  <si>
-    <t>Scomberomorus cavalla</t>
-  </si>
-  <si>
-    <t>Sco cav</t>
-  </si>
-  <si>
-    <t>North.Sciades herzbergii</t>
-  </si>
-  <si>
-    <t>Sciades herzbergii</t>
-  </si>
-  <si>
-    <t>Sci her</t>
-  </si>
-  <si>
-    <t>Ariidae</t>
-  </si>
-  <si>
-    <t>North.Genyatremus luteus</t>
-  </si>
-  <si>
-    <t>Genyatremus luteus</t>
-  </si>
-  <si>
-    <t>Gen lut</t>
-  </si>
-  <si>
-    <t>Haemulidae</t>
-  </si>
-  <si>
-    <t>North.Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t>Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t>Cyn aco</t>
-  </si>
-  <si>
-    <t>North.Aspistor quadriscutis</t>
-  </si>
-  <si>
-    <t>Aspistor quadriscutis</t>
-  </si>
-  <si>
-    <t>Asp qua</t>
-  </si>
-  <si>
-    <t>North.Megalops atlanticus</t>
-  </si>
-  <si>
-    <t>Megalops atlanticus</t>
-  </si>
-  <si>
-    <t>Meg atl</t>
-  </si>
-  <si>
-    <t>Megalopidae</t>
-  </si>
-  <si>
-    <t>North.Caranx hippos</t>
-  </si>
-  <si>
-    <t>Caranx hippos</t>
-  </si>
-  <si>
-    <t>Car hip</t>
-  </si>
-  <si>
-    <t>Carangidae</t>
-  </si>
-  <si>
-    <t>North.Centropomus spp</t>
-  </si>
-  <si>
-    <t>Centropomus spp</t>
-  </si>
-  <si>
-    <t>Cen spp</t>
-  </si>
-  <si>
-    <t>North.Cynoscion leiarchus</t>
-  </si>
-  <si>
-    <t>Cynoscion leiarchus</t>
-  </si>
-  <si>
-    <t>Cyn lei</t>
-  </si>
-  <si>
-    <t>North.Conodon nobilis</t>
-  </si>
-  <si>
-    <t>Conodon nobilis</t>
-  </si>
-  <si>
-    <t>Con nob</t>
-  </si>
-  <si>
-    <t>North.Sciades proops</t>
-  </si>
-  <si>
-    <t>Sciades proops</t>
-  </si>
-  <si>
-    <t>Sci pro</t>
-  </si>
-  <si>
-    <t>North.Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t>Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t>Sar bra</t>
-  </si>
-  <si>
-    <t>North.Bagre bagre</t>
-  </si>
-  <si>
-    <t>Bagre bagre</t>
-  </si>
-  <si>
-    <t>Bag bag</t>
-  </si>
-  <si>
-    <t>Northeast.Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t>Northeast.Ucides cordatus</t>
-  </si>
-  <si>
-    <t>Northeast.Sciades parkeri</t>
-  </si>
-  <si>
-    <t>Sciades parkeri</t>
-  </si>
-  <si>
-    <t>Sci par</t>
-  </si>
-  <si>
-    <t>Northeast.Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t>Northeast.Carcharhinus spp</t>
-  </si>
-  <si>
-    <t>Carcharhinus spp</t>
-  </si>
-  <si>
-    <t>Car spp</t>
-  </si>
-  <si>
-    <t>Northeast.Mugil spp</t>
-  </si>
-  <si>
-    <t>Northeast.Lutjanus purpureus</t>
-  </si>
-  <si>
-    <t>Northeast.Sciades proops</t>
-  </si>
-  <si>
-    <t>Northeast.Coryphaena hippurus</t>
-  </si>
-  <si>
-    <t>Coryphaena hippurus</t>
-  </si>
-  <si>
-    <t>Cor hip</t>
-  </si>
-  <si>
-    <t>Coryphaenidae</t>
-  </si>
-  <si>
-    <t>Northeast.Macrodon ancylodon</t>
-  </si>
-  <si>
-    <t>Macrodon ancylodon</t>
-  </si>
-  <si>
-    <t>Mac anc</t>
-  </si>
-  <si>
-    <t>Northeast.Sciades herzbergii</t>
-  </si>
-  <si>
-    <t>Northeast.Bagre bagre</t>
-  </si>
-  <si>
-    <t>Northeast.Mugil curema</t>
-  </si>
-  <si>
-    <t>Mugil curema</t>
-  </si>
-  <si>
-    <t>Mug cur</t>
-  </si>
-  <si>
-    <t>Mugilidae</t>
-  </si>
-  <si>
-    <t>Northeast.Caranx spp</t>
-  </si>
-  <si>
-    <t>Caranx spp</t>
-  </si>
-  <si>
-    <t>Northeast.Aspistor quadriscutis</t>
-  </si>
-  <si>
-    <t>Northeast.Cynoscion virescens</t>
-  </si>
-  <si>
-    <t>Cynoscion virescens</t>
-  </si>
-  <si>
-    <t>Cyn vir</t>
-  </si>
-  <si>
-    <t>Northeast.Sciades couma</t>
-  </si>
-  <si>
-    <t>Sciades couma</t>
-  </si>
-  <si>
-    <t>Sci cou</t>
-  </si>
-  <si>
-    <t>Northeast.Megalops atlanticus</t>
-  </si>
-  <si>
-    <t>Northeast.Centropomus spp</t>
-  </si>
-  <si>
-    <t>Northeast.Notarius grandicassis</t>
-  </si>
-  <si>
-    <t>Notarius grandicassis</t>
-  </si>
-  <si>
-    <t>Not gra</t>
-  </si>
-  <si>
-    <t>Southeast.Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t>Southeast.Scomber colias</t>
-  </si>
-  <si>
-    <t>Scomber colias</t>
-  </si>
-  <si>
-    <t>Sco col</t>
-  </si>
-  <si>
-    <t>Southeast.Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t>Southeast.Macrodon atricauda</t>
-  </si>
-  <si>
-    <t>Macrodon atricauda</t>
-  </si>
-  <si>
-    <t>Mac atr</t>
-  </si>
-  <si>
-    <t>Southeast.Cetengraulis edentulus</t>
-  </si>
-  <si>
-    <t>Cetengraulis edentulus</t>
-  </si>
-  <si>
-    <t>Cet ede</t>
-  </si>
-  <si>
-    <t>Engraulidae</t>
-  </si>
-  <si>
-    <t>Southeast.Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t>Southeast.Katsuwonus pelamis</t>
-  </si>
-  <si>
-    <t>Katsuwonus pelamis</t>
-  </si>
-  <si>
-    <t>Kat pel</t>
-  </si>
-  <si>
-    <t>Southeast.Mugil spp</t>
-  </si>
-  <si>
-    <t>Southeast.Balistes capriscus</t>
-  </si>
-  <si>
-    <t>Balistes capriscus</t>
-  </si>
-  <si>
-    <t>Bal cap</t>
-  </si>
-  <si>
-    <t>Balistidae</t>
-  </si>
-  <si>
-    <t>Southeast.Cynoscion spp</t>
-  </si>
-  <si>
-    <t>Cynoscion spp</t>
-  </si>
-  <si>
-    <t>Cyn spp</t>
-  </si>
-  <si>
-    <t>Southeast.Coryphaena hippurus</t>
-  </si>
-  <si>
-    <t>Southeast.Thunnus albacares</t>
-  </si>
-  <si>
-    <t>Thunnus albacares</t>
-  </si>
-  <si>
-    <t>Thu alb</t>
-  </si>
-  <si>
-    <t>Southeast.Brevoortia spp</t>
-  </si>
-  <si>
-    <t>Brevoortia spp</t>
-  </si>
-  <si>
-    <t>Bre spp</t>
-  </si>
-  <si>
-    <t>Southeast.Cynoscion jamaicensis</t>
-  </si>
-  <si>
-    <t>Cynoscion jamaicensis</t>
-  </si>
-  <si>
-    <t>Cyn jam</t>
-  </si>
-  <si>
-    <t>Southeast.Selene spp</t>
-  </si>
-  <si>
-    <t>Selene spp</t>
-  </si>
-  <si>
-    <t>Sel spp</t>
-  </si>
-  <si>
-    <t>Southeast.Pomatomus saltatrix</t>
-  </si>
-  <si>
-    <t>Pomatomus saltatrix</t>
-  </si>
-  <si>
-    <t>Pom sal</t>
-  </si>
-  <si>
-    <t>Pomatomidae</t>
-  </si>
-  <si>
-    <t>Southeast.Caranx spp</t>
-  </si>
-  <si>
-    <t>Southeast.Balistes spp</t>
-  </si>
-  <si>
-    <t>Balistes spp</t>
-  </si>
-  <si>
-    <t>Bal spp</t>
-  </si>
-  <si>
-    <t>Southeast.Pagrus pagrus</t>
-  </si>
-  <si>
-    <t>Pagrus pagrus</t>
-  </si>
-  <si>
-    <t>Pag pag</t>
-  </si>
-  <si>
-    <t>Sparidae</t>
-  </si>
-  <si>
-    <t>Southeast.Trichiurus lepturus</t>
-  </si>
-  <si>
-    <t>Trichiurus lepturus</t>
-  </si>
-  <si>
-    <t>Tri lep</t>
-  </si>
-  <si>
-    <t>Trichiuridae</t>
-  </si>
-  <si>
-    <t>South.Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t>South.Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t>South.Umbrina canosai</t>
-  </si>
-  <si>
-    <t>Umbrina canosai</t>
-  </si>
-  <si>
-    <t>Umb can</t>
-  </si>
-  <si>
-    <t>South.Merluccius hubbsi</t>
-  </si>
-  <si>
-    <t>Merluccius hubbsi</t>
-  </si>
-  <si>
-    <t>Mer hub</t>
-  </si>
-  <si>
-    <t>Merlucciidae</t>
-  </si>
-  <si>
-    <t>South.Katsuwonus pelamis</t>
-  </si>
-  <si>
-    <t>South.Cynoscion guatucupa</t>
-  </si>
-  <si>
-    <t>Cynoscion guatucupa</t>
-  </si>
-  <si>
-    <t>Cyn gua</t>
-  </si>
-  <si>
-    <t>South.Pomatomus saltatrix</t>
-  </si>
-  <si>
-    <t>South.Macrodon atricauda</t>
-  </si>
-  <si>
-    <t>South.Mugil liza</t>
-  </si>
-  <si>
-    <t>Mugil liza</t>
-  </si>
-  <si>
-    <t>Mug liz</t>
-  </si>
-  <si>
-    <t>South.Genidens barbus</t>
-  </si>
-  <si>
-    <t>Genidens barbus</t>
-  </si>
-  <si>
-    <t>Gen bar</t>
-  </si>
-  <si>
-    <t>South.Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t>South.Scomber colias</t>
-  </si>
-  <si>
-    <t>South.Selene spp</t>
-  </si>
-  <si>
-    <t>South.Mugil spp</t>
-  </si>
-  <si>
-    <t>South.Prionotus punctatus</t>
-  </si>
-  <si>
-    <t>Prionotus punctatus</t>
-  </si>
-  <si>
-    <t>Pri pun</t>
-  </si>
-  <si>
-    <t>Triglidae</t>
-  </si>
-  <si>
-    <t>South.Chloroscombrus chrysurus</t>
-  </si>
-  <si>
-    <t>Chloroscombrus chrysurus</t>
-  </si>
-  <si>
-    <t>Chl chr</t>
-  </si>
-  <si>
-    <t>South.Brevoortia pectinata</t>
-  </si>
-  <si>
-    <t>Brevoortia pectinata</t>
-  </si>
-  <si>
-    <t>Bre pec</t>
-  </si>
-  <si>
-    <t>South.Paralichthys spp</t>
-  </si>
-  <si>
-    <t>Paralichthys spp</t>
-  </si>
-  <si>
-    <t>Par spp</t>
-  </si>
-  <si>
-    <t>South.Urophycis brasiliensis</t>
-  </si>
-  <si>
-    <t>Urophycis brasiliensis</t>
-  </si>
-  <si>
-    <t>Uro bra</t>
-  </si>
-  <si>
-    <t>Phycidae</t>
-  </si>
-  <si>
-    <t>South.Trachurus lathami</t>
-  </si>
-  <si>
-    <t>Trachurus lathami</t>
-  </si>
-  <si>
-    <t>Tra lat</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species_taxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Ucides cordatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucides cordatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uci cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malacostraca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocypodidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sco bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinopteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scombridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lut pur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutjanidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocy chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opi ogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clupeidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mic fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciaenidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Scomberomorus cavalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scomberomorus cavalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sco cav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Sciades herzbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades herzbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Genyatremus luteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genyatremus luteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen lut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemulidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Cynoscion acoupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion acoupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn aco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Aspistor quadriscutis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspistor quadriscutis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp qua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Megalops atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megalops atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meg atl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megalopidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Caranx hippos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caranx hippos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carangidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Centropomus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centropomus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cen spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Cynoscion leiarchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion leiarchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Conodon nobilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conodon nobilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con nob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sar bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Cynoscion acoupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Ucides cordatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades parkeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades parkeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Carcharhinus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carcharhinus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coryphaenidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Macrodon ancylodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrodon ancylodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac anc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades herzbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Mugil curema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugil curema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugilidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Caranx spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caranx spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Aspistor quadriscutis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Cynoscion virescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion virescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn vir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades couma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades couma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci cou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Megalops atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Centropomus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Notarius grandicassis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notarius grandicassis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not gra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Scomber colias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scomber colias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sco col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Macrodon atricauda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrodon atricauda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac atr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Cetengraulis edentulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetengraulis edentulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet ede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engraulidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Katsuwonus pelamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsuwonus pelamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Balistes capriscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balistes capriscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bal cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balistidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Cynoscion spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Thunnus albacares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunnus albacares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu alb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Brevoortia spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brevoortia spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bre spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Cynoscion jamaicensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion jamaicensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Selene spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selene spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sel spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Pomatomus saltatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomatomus saltatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pom sal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomatomidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Caranx spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Balistes spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balistes spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bal spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Pagrus pagrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagrus pagrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pag pag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast.Trichiurus lepturus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichiurus lepturus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri lep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichiuridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Umbrina canosai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbrina canosai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umb can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Merluccius hubbsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merluccius hubbsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mer hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merlucciidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Katsuwonus pelamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Cynoscion guatucupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion guatucupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn gua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Pomatomus saltatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Macrodon atricauda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Mugil liza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugil liza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug liz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Genidens barbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genidens barbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Scomber colias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Selene spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Prionotus punctatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prionotus punctatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pri pun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triglidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Chloroscombrus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroscombrus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chl chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Brevoortia pectinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brevoortia pectinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bre pec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Paralichthys spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralichthys spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Urophycis brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urophycis brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uro bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phycidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South.Trachurus lathami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trachurus lathami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra lat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,15 +697,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -994,23 +978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="A1:F81"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,11 +1005,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>343162.43</v>
       </c>
       <c r="C2" t="s">
@@ -1050,11 +1025,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>329766.77</v>
       </c>
       <c r="C3" t="s">
@@ -1063,12 +1038,14 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>195146.59</v>
       </c>
       <c r="C4" t="s">
@@ -1084,11 +1061,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>161252.76</v>
       </c>
       <c r="C5" t="s">
@@ -1104,11 +1081,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>148457.43</v>
       </c>
       <c r="C6" t="s">
@@ -1124,12 +1101,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>142999.82999999999</v>
+      <c r="B7" t="n">
+        <v>142999.83</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1144,11 +1121,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>139071.76</v>
       </c>
       <c r="C8" t="s">
@@ -1164,11 +1141,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>124958.27</v>
       </c>
       <c r="C9" t="s">
@@ -1184,11 +1161,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>117094.88</v>
       </c>
       <c r="C10" t="s">
@@ -1204,11 +1181,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>116397.21</v>
       </c>
       <c r="C11" t="s">
@@ -1224,11 +1201,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>110304.14</v>
       </c>
       <c r="C12" t="s">
@@ -1244,11 +1221,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>106915.69</v>
       </c>
       <c r="C13" t="s">
@@ -1264,11 +1241,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>99628.62</v>
       </c>
       <c r="C14" t="s">
@@ -1284,11 +1261,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>99397.92</v>
       </c>
       <c r="C15" t="s">
@@ -1304,11 +1281,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>94378.76</v>
       </c>
       <c r="C16" t="s">
@@ -1317,12 +1294,14 @@
       <c r="D16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>89809.74</v>
       </c>
       <c r="C17" t="s">
@@ -1338,11 +1317,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>87328.91</v>
       </c>
       <c r="C18" t="s">
@@ -1358,11 +1337,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>84864.35</v>
       </c>
       <c r="C19" t="s">
@@ -1378,11 +1357,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>84834.09</v>
       </c>
       <c r="C20" t="s">
@@ -1398,11 +1377,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>84191.79</v>
       </c>
       <c r="C21" t="s">
@@ -1418,11 +1397,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>317120.12</v>
       </c>
       <c r="C22" t="s">
@@ -1438,11 +1417,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>256274.49</v>
       </c>
       <c r="C23" t="s">
@@ -1458,11 +1437,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>238074.18</v>
       </c>
       <c r="C24" t="s">
@@ -1478,11 +1457,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>168911.69</v>
       </c>
       <c r="C25" t="s">
@@ -1498,11 +1477,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>83</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>109245.15</v>
       </c>
       <c r="C26" t="s">
@@ -1511,12 +1490,14 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>100064.94</v>
       </c>
       <c r="C27" t="s">
@@ -1525,12 +1506,14 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>87</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>95687.05</v>
       </c>
       <c r="C28" t="s">
@@ -1546,11 +1529,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>94478.84</v>
       </c>
       <c r="C29" t="s">
@@ -1566,11 +1549,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>88998.63</v>
       </c>
       <c r="C30" t="s">
@@ -1586,11 +1569,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>87349.18</v>
       </c>
       <c r="C31" t="s">
@@ -1606,11 +1589,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>73334.14</v>
       </c>
       <c r="C32" t="s">
@@ -1626,11 +1609,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>97</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>68471.58</v>
       </c>
       <c r="C33" t="s">
@@ -1646,11 +1629,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>44589.61</v>
       </c>
       <c r="C34" t="s">
@@ -1666,11 +1649,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>40929.43</v>
       </c>
       <c r="C35" t="s">
@@ -1679,13 +1662,15 @@
       <c r="D35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B36">
-        <v>36694.730000000003</v>
+      <c r="B36" t="n">
+        <v>36694.73</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -1700,11 +1685,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>105</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>36286.97</v>
       </c>
       <c r="C37" t="s">
@@ -1720,11 +1705,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>108</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>35626.53</v>
       </c>
       <c r="C38" t="s">
@@ -1740,11 +1725,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>33969.64</v>
       </c>
       <c r="C39" t="s">
@@ -1760,11 +1745,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>31567.39</v>
       </c>
       <c r="C40" t="s">
@@ -1773,12 +1758,14 @@
       <c r="D40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>113</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>26126.75</v>
       </c>
       <c r="C41" t="s">
@@ -1794,11 +1781,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>3807235.04</v>
       </c>
       <c r="C42" t="s">
@@ -1814,11 +1801,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>117</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>384299.67</v>
       </c>
       <c r="C43" t="s">
@@ -1834,11 +1821,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>120</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>363911.42</v>
       </c>
       <c r="C44" t="s">
@@ -1854,11 +1841,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>121</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>199374.92</v>
       </c>
       <c r="C45" t="s">
@@ -1874,11 +1861,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>124</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>165468.79</v>
       </c>
       <c r="C46" t="s">
@@ -1894,11 +1881,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>128</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>152447.91</v>
       </c>
       <c r="C47" t="s">
@@ -1914,11 +1901,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>129</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>144653.59</v>
       </c>
       <c r="C48" t="s">
@@ -1934,11 +1921,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>132</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>127649.78</v>
       </c>
       <c r="C49" t="s">
@@ -1947,12 +1934,14 @@
       <c r="D49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>133</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>121099.07</v>
       </c>
       <c r="C50" t="s">
@@ -1968,11 +1957,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>137</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>115561.8</v>
       </c>
       <c r="C51" t="s">
@@ -1981,12 +1970,14 @@
       <c r="D51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>140</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>105216.55</v>
       </c>
       <c r="C52" t="s">
@@ -2002,11 +1993,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>141</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>104871.38</v>
       </c>
       <c r="C53" t="s">
@@ -2022,11 +2013,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>144</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>100449.54</v>
       </c>
       <c r="C54" t="s">
@@ -2035,12 +2026,14 @@
       <c r="D54" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>147</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>99681.25</v>
       </c>
       <c r="C55" t="s">
@@ -2056,11 +2049,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>150</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>87996.73</v>
       </c>
       <c r="C56" t="s">
@@ -2069,12 +2062,14 @@
       <c r="D56" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>153</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>84074.98</v>
       </c>
       <c r="C57" t="s">
@@ -2090,11 +2085,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>157</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>75883.22</v>
       </c>
       <c r="C58" t="s">
@@ -2103,12 +2098,14 @@
       <c r="D58" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>158</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>64268.67</v>
       </c>
       <c r="C59" t="s">
@@ -2117,12 +2114,14 @@
       <c r="D59" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>161</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>62882.55</v>
       </c>
       <c r="C60" t="s">
@@ -2138,11 +2137,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>165</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>44822.07</v>
       </c>
       <c r="C61" t="s">
@@ -2158,11 +2157,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>169</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>2340055.08</v>
       </c>
       <c r="C62" t="s">
@@ -2178,11 +2177,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>170</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>1600609.04</v>
       </c>
       <c r="C63" t="s">
@@ -2198,11 +2197,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>171</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>786945.72</v>
       </c>
       <c r="C64" t="s">
@@ -2218,11 +2217,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>174</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>757135.28</v>
       </c>
       <c r="C65" t="s">
@@ -2238,11 +2237,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>178</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>553003.37</v>
       </c>
       <c r="C66" t="s">
@@ -2258,11 +2257,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>179</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>374764.46</v>
       </c>
       <c r="C67" t="s">
@@ -2278,12 +2277,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>182</v>
       </c>
-      <c r="B68">
-        <v>321628.90999999997</v>
+      <c r="B68" t="n">
+        <v>321628.91</v>
       </c>
       <c r="C68" t="s">
         <v>154</v>
@@ -2298,11 +2297,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>183</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>299813.17</v>
       </c>
       <c r="C69" t="s">
@@ -2318,11 +2317,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>184</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>280782.82</v>
       </c>
       <c r="C70" t="s">
@@ -2338,11 +2337,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>187</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>243991.54</v>
       </c>
       <c r="C71" t="s">
@@ -2358,11 +2357,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>190</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>225467.82</v>
       </c>
       <c r="C72" t="s">
@@ -2378,12 +2377,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>191</v>
       </c>
-      <c r="B73">
-        <v>142012.10999999999</v>
+      <c r="B73" t="n">
+        <v>142012.11</v>
       </c>
       <c r="C73" t="s">
         <v>118</v>
@@ -2398,11 +2397,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>192</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>123292.44</v>
       </c>
       <c r="C74" t="s">
@@ -2411,12 +2410,14 @@
       <c r="D74" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>193</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>114481.82</v>
       </c>
       <c r="C75" t="s">
@@ -2425,12 +2426,14 @@
       <c r="D75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>194</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>99565.2</v>
       </c>
       <c r="C76" t="s">
@@ -2446,11 +2449,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>198</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>98030.79</v>
       </c>
       <c r="C77" t="s">
@@ -2466,11 +2469,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>201</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>96579.06</v>
       </c>
       <c r="C78" t="s">
@@ -2486,11 +2489,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>204</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>88020.62</v>
       </c>
       <c r="C79" t="s">
@@ -2499,12 +2502,14 @@
       <c r="D79" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>207</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>83869.95</v>
       </c>
       <c r="C80" t="s">
@@ -2520,11 +2525,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>211</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>62251.87</v>
       </c>
       <c r="C81" t="s">
@@ -2542,6 +2547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/tab_names_catch.xlsx
+++ b/output/tab_names_catch.xlsx
@@ -32,328 +32,328 @@
     <t xml:space="preserve">family</t>
   </si>
   <si>
+    <t xml:space="preserve">Northeast.Ucides cordatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucides cordatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uci cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malacostraca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocypodidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugil spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sco bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinopteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scombridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutjanus purpureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lut pur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutjanidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocy chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opi ogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clupeidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micropogonias furnieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mic fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciaenidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Scomberomorus cavalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scomberomorus cavalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sco cav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades herzbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades herzbergii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Genyatremus luteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genyatremus luteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen lut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemulidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Cynoscion acoupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion acoupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn aco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Aspistor quadriscutis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspistor quadriscutis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp qua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Megalops atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megalops atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meg atl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megalopidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Caranx hippos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caranx hippos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carangidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Centropomus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centropomus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cen spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Cynoscion leiarchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion leiarchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn lei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Conodon nobilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conodon nobilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con nob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sar bra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast.Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Cynoscion acoupa</t>
+  </si>
+  <si>
     <t xml:space="preserve">North.Ucides cordatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Ucides cordatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uci cor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malacostraca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocypodidae</t>
+    <t xml:space="preserve">North.Sciades parkeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades parkeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Scomberomorus brasiliensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Carcharhinus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carcharhinus spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car spp</t>
   </si>
   <si>
     <t xml:space="preserve">North.Mugil spp</t>
   </si>
   <si>
-    <t xml:space="preserve">Mugil spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mug spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sco bra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actinopteri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scombridae</t>
-  </si>
-  <si>
     <t xml:space="preserve">North.Lutjanus purpureus</t>
   </si>
   <si>
-    <t xml:space="preserve">Lutjanus purpureus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lut pur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lutjanidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Ocyurus chrysurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocyurus chrysurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocy chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opisthonema oglinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opi ogl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clupeidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micropogonias furnieri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mic fur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciaenidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Scomberomorus cavalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scomberomorus cavalla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sco cav</t>
+    <t xml:space="preserve">North.Sciades proops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coryphaena hippurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coryphaenidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Macrodon ancylodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrodon ancylodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac anc</t>
   </si>
   <si>
     <t xml:space="preserve">North.Sciades herzbergii</t>
   </si>
   <si>
-    <t xml:space="preserve">Sciades herzbergii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sci her</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Genyatremus luteus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genyatremus luteus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen lut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haemulidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyn aco</t>
+    <t xml:space="preserve">North.Bagre bagre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Mugil curema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugil curema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mug cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugilidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Caranx spp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caranx spp</t>
   </si>
   <si>
     <t xml:space="preserve">North.Aspistor quadriscutis</t>
   </si>
   <si>
-    <t xml:space="preserve">Aspistor quadriscutis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asp qua</t>
+    <t xml:space="preserve">North.Cynoscion virescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynoscion virescens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyn vir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North.Sciades couma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciades couma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci cou</t>
   </si>
   <si>
     <t xml:space="preserve">North.Megalops atlanticus</t>
   </si>
   <si>
-    <t xml:space="preserve">Megalops atlanticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meg atl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megalopidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Caranx hippos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caranx hippos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carangidae</t>
-  </si>
-  <si>
     <t xml:space="preserve">North.Centropomus spp</t>
   </si>
   <si>
-    <t xml:space="preserve">Centropomus spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cen spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Cynoscion leiarchus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynoscion leiarchus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyn lei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Conodon nobilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conodon nobilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con nob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Sciades proops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciades proops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sci pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sardinella brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sar bra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North.Bagre bagre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagre bagre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Cynoscion acoupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Ucides cordatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Sciades parkeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciades parkeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sci par</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Scomberomorus brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Carcharhinus spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carcharhinus spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Mugil spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Lutjanus purpureus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Sciades proops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Coryphaena hippurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coryphaena hippurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cor hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coryphaenidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Macrodon ancylodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrodon ancylodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac anc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Sciades herzbergii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Bagre bagre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Mugil curema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mugil curema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mug cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mugilidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Caranx spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caranx spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Aspistor quadriscutis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Cynoscion virescens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynoscion virescens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyn vir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Sciades couma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sciades couma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sci cou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Megalops atlanticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Centropomus spp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast.Notarius grandicassis</t>
+    <t xml:space="preserve">North.Notarius grandicassis</t>
   </si>
   <si>
     <t xml:space="preserve">Notarius grandicassis</t>
